--- a/Documentation/Профиль нагрузки.xlsx
+++ b/Documentation/Профиль нагрузки.xlsx
@@ -5,21 +5,23 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Никита\Documents\VuGen\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VuGen\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="578"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="605"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
-    <sheet name="Лист соответствия" sheetId="4" r:id="rId2"/>
-    <sheet name="Debug Summary Report" sheetId="5" r:id="rId3"/>
-    <sheet name="Шаблоны соотвествие профилю" sheetId="2" r:id="rId4"/>
+    <sheet name="Тест поиска максимума" sheetId="6" r:id="rId2"/>
+    <sheet name="Тест подтверждения максимума" sheetId="7" r:id="rId3"/>
+    <sheet name="Лист соответствия" sheetId="4" r:id="rId4"/>
+    <sheet name="Debug Summary Report" sheetId="5" r:id="rId5"/>
+    <sheet name="Шаблоны соотвествие профилю" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -220,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="110">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -561,12 +563,20 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1521,52 +1531,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1589,106 +1620,99 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="3" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
@@ -1700,36 +1724,36 @@
     <xf numFmtId="165" fontId="0" fillId="41" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1757,23 +1781,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="87"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="87"/>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="3" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1783,57 +1808,69 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="38" borderId="3" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="122">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="46"/>
     <cellStyle name="20% — акцент1 3" xfId="67"/>
     <cellStyle name="20% — акцент1 4" xfId="90"/>
+    <cellStyle name="20% — акцент1 5" xfId="110"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="49"/>
     <cellStyle name="20% — акцент2 3" xfId="70"/>
     <cellStyle name="20% — акцент2 4" xfId="93"/>
+    <cellStyle name="20% — акцент2 5" xfId="112"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="52"/>
     <cellStyle name="20% — акцент3 3" xfId="73"/>
     <cellStyle name="20% — акцент3 4" xfId="96"/>
+    <cellStyle name="20% — акцент3 5" xfId="114"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="55"/>
     <cellStyle name="20% — акцент4 3" xfId="76"/>
     <cellStyle name="20% — акцент4 4" xfId="99"/>
+    <cellStyle name="20% — акцент4 5" xfId="116"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="58"/>
     <cellStyle name="20% — акцент5 3" xfId="79"/>
     <cellStyle name="20% — акцент5 4" xfId="102"/>
+    <cellStyle name="20% — акцент5 5" xfId="118"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="61"/>
     <cellStyle name="20% — акцент6 3" xfId="82"/>
     <cellStyle name="20% — акцент6 4" xfId="105"/>
+    <cellStyle name="20% — акцент6 5" xfId="120"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="47"/>
     <cellStyle name="40% — акцент1 3" xfId="68"/>
     <cellStyle name="40% — акцент1 4" xfId="91"/>
+    <cellStyle name="40% — акцент1 5" xfId="111"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="50"/>
     <cellStyle name="40% — акцент2 3" xfId="71"/>
     <cellStyle name="40% — акцент2 4" xfId="94"/>
+    <cellStyle name="40% — акцент2 5" xfId="113"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="53"/>
     <cellStyle name="40% — акцент3 3" xfId="74"/>
     <cellStyle name="40% — акцент3 4" xfId="97"/>
+    <cellStyle name="40% — акцент3 5" xfId="115"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="56"/>
     <cellStyle name="40% — акцент4 3" xfId="77"/>
     <cellStyle name="40% — акцент4 4" xfId="100"/>
+    <cellStyle name="40% — акцент4 5" xfId="117"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="59"/>
     <cellStyle name="40% — акцент5 3" xfId="80"/>
     <cellStyle name="40% — акцент5 4" xfId="103"/>
+    <cellStyle name="40% — акцент5 5" xfId="119"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="62"/>
     <cellStyle name="40% — акцент6 3" xfId="83"/>
     <cellStyle name="40% — акцент6 4" xfId="106"/>
+    <cellStyle name="40% — акцент6 5" xfId="121"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="48"/>
     <cellStyle name="60% — акцент1 3" xfId="69"/>
@@ -1884,12 +1921,14 @@
     <cellStyle name="Обычный 3 2" xfId="64"/>
     <cellStyle name="Обычный 3 3" xfId="85"/>
     <cellStyle name="Обычный 4" xfId="87"/>
+    <cellStyle name="Обычный 5" xfId="108"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43"/>
     <cellStyle name="Примечание 2 2" xfId="65"/>
     <cellStyle name="Примечание 2 3" xfId="86"/>
     <cellStyle name="Примечание 3" xfId="89"/>
+    <cellStyle name="Примечание 4" xfId="109"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -2668,7 +2707,7 @@
   <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4116,10 +4155,10 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="95"/>
+      <c r="B38" s="96"/>
     </row>
     <row r="39" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
@@ -4242,7 +4281,7 @@
       <c r="B43" s="39">
         <v>282</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="60">
         <f t="shared" si="30"/>
         <v>294</v>
       </c>
@@ -4365,7 +4404,7 @@
       <c r="B47" s="39">
         <v>73</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="60">
         <f t="shared" si="30"/>
         <v>72</v>
       </c>
@@ -4503,10 +4542,10 @@
         <f t="shared" si="33"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="92">
         <v>34</v>
       </c>
-      <c r="H51" s="97">
+      <c r="H51" s="94">
         <f t="shared" si="32"/>
         <v>4.610492845786951E-2</v>
       </c>
@@ -4719,6 +4758,496 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="150" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="60">
+        <v>535</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="92">
+        <f>A2/3</f>
+        <v>178.33333333333334</v>
+      </c>
+      <c r="D2" s="21">
+        <f>537/3</f>
+        <v>179</v>
+      </c>
+      <c r="E2" s="23">
+        <f t="shared" ref="E2:E13" si="0">1-C2/D2</f>
+        <v>3.7243947858472959E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="60">
+        <v>438</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="92">
+        <f t="shared" ref="C3:C13" si="1">A3/3</f>
+        <v>146</v>
+      </c>
+      <c r="D3" s="21">
+        <f>438/3</f>
+        <v>146</v>
+      </c>
+      <c r="E3" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="60">
+        <v>294</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="92">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D4" s="21">
+        <f>294/3</f>
+        <v>98</v>
+      </c>
+      <c r="E4" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="60">
+        <v>294</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="92">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D5" s="21">
+        <f>294/3</f>
+        <v>98</v>
+      </c>
+      <c r="E5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="60">
+        <v>270</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="92">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D6" s="21">
+        <f>270/3</f>
+        <v>90</v>
+      </c>
+      <c r="E6" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="60">
+        <v>180</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="92">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D7" s="21">
+        <f>180/3</f>
+        <v>60</v>
+      </c>
+      <c r="E7" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
+        <v>288</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="92">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D8" s="21">
+        <f>288/3</f>
+        <v>96</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
+        <v>72</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="92">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="21">
+        <f>72/3</f>
+        <v>24</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="60">
+        <v>331</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="92">
+        <f t="shared" si="1"/>
+        <v>110.33333333333333</v>
+      </c>
+      <c r="D10" s="92">
+        <f>331/3</f>
+        <v>110.33333333333333</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
+        <v>97</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="92">
+        <f t="shared" si="1"/>
+        <v>32.333333333333336</v>
+      </c>
+      <c r="D11" s="92">
+        <f>101/3</f>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="E11" s="23">
+        <f t="shared" si="0"/>
+        <v>3.9603960396039417E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="60">
+        <v>97</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="92">
+        <f t="shared" si="1"/>
+        <v>32.333333333333336</v>
+      </c>
+      <c r="D12" s="92">
+        <f>101/3</f>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="0"/>
+        <v>3.9603960396039417E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="60">
+        <v>97</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="92">
+        <f t="shared" si="1"/>
+        <v>32.333333333333336</v>
+      </c>
+      <c r="D13" s="21">
+        <f>99/3</f>
+        <v>33</v>
+      </c>
+      <c r="E13" s="94">
+        <f t="shared" si="0"/>
+        <v>2.020202020202011E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="98">
+        <v>535</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="92">
+        <v>534.07399999999996</v>
+      </c>
+      <c r="D2" s="23">
+        <f>1-A2/C2</f>
+        <v>-1.7338421267465431E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="98">
+        <v>438</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="92">
+        <v>444.815</v>
+      </c>
+      <c r="D3" s="23">
+        <f t="shared" ref="D3:D13" si="0">1-A3/C3</f>
+        <v>1.5320976136146469E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="98">
+        <v>294</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="92">
+        <v>284.44400000000002</v>
+      </c>
+      <c r="D4" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.3595364992757837E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="98">
+        <v>294</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="92">
+        <v>284.815</v>
+      </c>
+      <c r="D5" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.2249003739269311E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="98">
+        <v>270</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="92">
+        <v>266.666</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" si="0"/>
+        <v>-1.2502531256328053E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="98">
+        <v>180</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="21">
+        <v>200</v>
+      </c>
+      <c r="D7" s="23">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="98">
+        <v>288</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="21">
+        <v>320</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="98">
+        <v>72</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="21">
+        <v>80</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="98">
+        <v>331</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="92">
+        <v>317.77699999999999</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="0"/>
+        <v>-4.1610941005799651E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="98">
+        <v>97</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="92">
+        <v>89.63</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="0"/>
+        <v>-8.222693294655814E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="98">
+        <v>97</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="92">
+        <v>89.63</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" si="0"/>
+        <v>-8.222693294655814E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="98">
+        <v>97</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="92">
+        <v>90.37</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
+        <v>-7.3365054774814586E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -4833,12 +5362,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5491,7 +6020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:O44"/>
   <sheetViews>
@@ -5518,13 +6047,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -5677,13 +6206,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -5843,13 +6372,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">

--- a/Documentation/Профиль нагрузки.xlsx
+++ b/Documentation/Профиль нагрузки.xlsx
@@ -558,10 +558,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -1655,7 +1656,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1799,6 +1800,8 @@
     <xf numFmtId="1" fontId="0" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="87"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="3" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="3" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1808,7 +1811,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="122">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2706,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4155,10 +4157,10 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="96"/>
+      <c r="B38" s="98"/>
     </row>
     <row r="39" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
@@ -4762,7 +4764,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A10" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4774,7 +4776,7 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="150" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
@@ -4804,7 +4806,7 @@
         <f>537/3</f>
         <v>179</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="96">
         <f t="shared" ref="E2:E13" si="0">1-C2/D2</f>
         <v>3.7243947858472959E-3</v>
       </c>
@@ -4824,7 +4826,7 @@
         <f>438/3</f>
         <v>146</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4984,7 +4986,7 @@
         <f>101/3</f>
         <v>33.666666666666664</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="94">
         <f t="shared" si="0"/>
         <v>3.9603960396039417E-2</v>
       </c>
@@ -5004,7 +5006,7 @@
         <f>101/3</f>
         <v>33.666666666666664</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="94">
         <f t="shared" si="0"/>
         <v>3.9603960396039417E-2</v>
       </c>
@@ -5039,7 +5041,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5063,7 +5065,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="98">
+      <c r="A2" s="95">
         <v>535</v>
       </c>
       <c r="B2" s="66" t="s">
@@ -5072,13 +5074,13 @@
       <c r="C2" s="92">
         <v>534.07399999999996</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="96">
         <f>1-A2/C2</f>
         <v>-1.7338421267465431E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="98">
+      <c r="A3" s="95">
         <v>438</v>
       </c>
       <c r="B3" s="66" t="s">
@@ -5087,13 +5089,13 @@
       <c r="C3" s="92">
         <v>444.815</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="96">
         <f t="shared" ref="D3:D13" si="0">1-A3/C3</f>
         <v>1.5320976136146469E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="98">
+      <c r="A4" s="95">
         <v>294</v>
       </c>
       <c r="B4" s="66" t="s">
@@ -5102,13 +5104,13 @@
       <c r="C4" s="92">
         <v>284.44400000000002</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="96">
         <f t="shared" si="0"/>
         <v>-3.3595364992757837E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="98">
+      <c r="A5" s="95">
         <v>294</v>
       </c>
       <c r="B5" s="66" t="s">
@@ -5117,13 +5119,13 @@
       <c r="C5" s="92">
         <v>284.815</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="96">
         <f t="shared" si="0"/>
         <v>-3.2249003739269311E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="98">
+      <c r="A6" s="95">
         <v>270</v>
       </c>
       <c r="B6" s="66" t="s">
@@ -5132,13 +5134,13 @@
       <c r="C6" s="92">
         <v>266.666</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="96">
         <f t="shared" si="0"/>
         <v>-1.2502531256328053E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="98">
+      <c r="A7" s="95">
         <v>180</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -5147,13 +5149,13 @@
       <c r="C7" s="21">
         <v>200</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="94">
         <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="98">
+      <c r="A8" s="95">
         <v>288</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -5168,7 +5170,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="98">
+      <c r="A9" s="95">
         <v>72</v>
       </c>
       <c r="B9" s="66" t="s">
@@ -5177,13 +5179,13 @@
       <c r="C9" s="21">
         <v>80</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="94">
         <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="98">
+      <c r="A10" s="95">
         <v>331</v>
       </c>
       <c r="B10" s="66" t="s">
@@ -5192,13 +5194,13 @@
       <c r="C10" s="92">
         <v>317.77699999999999</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="96">
         <f t="shared" si="0"/>
         <v>-4.1610941005799651E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="98">
+      <c r="A11" s="95">
         <v>97</v>
       </c>
       <c r="B11" s="66" t="s">
@@ -5207,13 +5209,13 @@
       <c r="C11" s="92">
         <v>89.63</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="96">
         <f t="shared" si="0"/>
         <v>-8.222693294655814E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="98">
+      <c r="A12" s="95">
         <v>97</v>
       </c>
       <c r="B12" s="66" t="s">
@@ -5222,13 +5224,13 @@
       <c r="C12" s="92">
         <v>89.63</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="96">
         <f t="shared" si="0"/>
         <v>-8.222693294655814E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="98">
+      <c r="A13" s="95">
         <v>97</v>
       </c>
       <c r="B13" s="66" t="s">
@@ -5237,7 +5239,7 @@
       <c r="C13" s="92">
         <v>90.37</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="96">
         <f t="shared" si="0"/>
         <v>-7.3365054774814586E-2</v>
       </c>
@@ -6047,13 +6049,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -6206,13 +6208,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="97" t="s">
+      <c r="E23" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -6372,13 +6374,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="97" t="s">
+      <c r="E35" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
